--- a/Bill Of Fabrics.xlsx
+++ b/Bill Of Fabrics.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -97,13 +97,121 @@
   </si>
   <si>
     <t>Merchandising</t>
+  </si>
+  <si>
+    <t>TC-001</t>
+  </si>
+  <si>
+    <t>Select Fabric</t>
+  </si>
+  <si>
+    <t>TC-002</t>
+  </si>
+  <si>
+    <t>TC-003</t>
+  </si>
+  <si>
+    <t>TC-004</t>
+  </si>
+  <si>
+    <t>TC-005</t>
+  </si>
+  <si>
+    <t>TC-006</t>
+  </si>
+  <si>
+    <t>TC-007</t>
+  </si>
+  <si>
+    <t>TC-008</t>
+  </si>
+  <si>
+    <t>TC-009</t>
+  </si>
+  <si>
+    <t>TC-010</t>
+  </si>
+  <si>
+    <t>TC-011</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>TC-018</t>
+  </si>
+  <si>
+    <t>TC-019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Order Pcs Qunatitiy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Dozen Quantity </t>
+  </si>
+  <si>
+    <t>Select Fabric color</t>
+  </si>
+  <si>
+    <t>Input consumption Per Dzn</t>
+  </si>
+  <si>
+    <t>Input Process Loss (Dyeing)</t>
+  </si>
+  <si>
+    <t>Input Process Loss (AOP)</t>
+  </si>
+  <si>
+    <t>Input Combo</t>
+  </si>
+  <si>
+    <t>Select yarn category</t>
+  </si>
+  <si>
+    <t>Select yarn count</t>
+  </si>
+  <si>
+    <t>Select yarn Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Curreency </t>
+  </si>
+  <si>
+    <t>Input GSM</t>
+  </si>
+  <si>
+    <t>Input Lycra</t>
+  </si>
+  <si>
+    <t>Select Fabric Type</t>
+  </si>
+  <si>
+    <t>Input Finish DIA</t>
+  </si>
+  <si>
+    <t>Input Fabrication</t>
+  </si>
+  <si>
+    <t>Add Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -160,6 +268,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -288,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -307,6 +421,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,6 +458,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -566,10 +682,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A10" sqref="A10:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
@@ -584,144 +700,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
+      <c r="E1" s="15"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="1"/>
       <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="19"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="1"/>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -731,19 +851,27 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5"/>
@@ -753,10 +881,14 @@
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>58</v>
+      </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -764,8 +896,12 @@
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
@@ -775,8 +911,12 @@
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
@@ -786,8 +926,12 @@
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
@@ -797,8 +941,12 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5"/>
@@ -808,8 +956,12 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
@@ -819,8 +971,12 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
@@ -828,6 +984,77 @@
       <c r="G19" s="7"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A24" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -855,6 +1082,6 @@
     <mergeCell ref="H7:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>